--- a/biology/Zoologie/Daphnis_hayesi/Daphnis_hayesi.xlsx
+++ b/biology/Zoologie/Daphnis_hayesi/Daphnis_hayesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daphnis hayesi est une espèce de lépidoptères appartenant à la famille des Sphingidae, à la sous-famille des Macroglossinae, et au genre Daphnis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur des ailes antérieures varie de 41 à 43 mm. La face dorsale de l'aile antérieure est semblable à celle de Daphnis hypothous hypothous mais en diffère par les détails du motif, il y a une ligne sinueuse  vert foncé qui travers la zone subapicale gris- vert-olive, l'angle du bord extérieur de la zone médiane vert foncé est obtus et fait partie de la zone médiane sombre qui est vert foncé.
 			Face dorsale de la femelle(coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue en Indonésie, et particulièrement au Sulawesi.</t>
@@ -575,9 +591,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Daphnis hayesi a été décrite par l'entomologiste français Jean-Marie Cadiou, en 1988[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Daphnis hayesi a été décrite par l'entomologiste français Jean-Marie Cadiou, en 1988.
 La localité type est :  Sulawesi Tengah, W. Celebes, district de Palu, Paloe, Sidaonta, en indonésie.
 </t>
         </is>
